--- a/FileTemplate.xlsx
+++ b/FileTemplate.xlsx
@@ -672,9 +672,8 @@
     <row r="220" ht="14.25" hidden="1" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the hose length (meters) between 150 and 5000" sqref="D2:D11">
-      <formula1>150.0</formula1>
-      <formula2>5000.0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of point types" sqref="F2:F11">
+      <formula1>"Hydrant,Fire"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of transport modes" sqref="E2:E11">
       <formula1>"Walking,Driving,Cycling,Service Driving"</formula1>
@@ -687,8 +686,9 @@
       <formula1>0.0</formula1>
       <formula2>90.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of point types" sqref="F2:F11">
-      <formula1>"Hydrant,Fire"</formula1>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 120 and 5000" sqref="D2:D11">
+      <formula1>120.0</formula1>
+      <formula2>5000.0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions/>
